--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="243">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:11:06+00:00</t>
+    <t>2022-09-30T12:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping: FHIR HL7 vs OMRS </t>
   </si>
   <si>
     <t/>
@@ -256,6 +259,9 @@
     <t>Person(classCode="PSN" and determinerCode="INST" and quantity="1")</t>
   </si>
   <si>
+    <t>OMRS Person</t>
+  </si>
+  <si>
     <t>Person.id</t>
   </si>
   <si>
@@ -263,421 +269,434 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Person.uuid</t>
+  </si>
+  <si>
+    <t>Person.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Person.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Person.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Person.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Person.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Person.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Person.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Person.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>A human identifier for this person</t>
+  </si>
+  <si>
+    <t>Identifier for a person within a particular scope.</t>
+  </si>
+  <si>
+    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
+  </si>
+  <si>
+    <t>.plays:Role(classCode='IDENT').id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t>Person.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the person</t>
+  </si>
+  <si>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>Person.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the person</t>
+  </si>
+  <si>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>Person.personAttribute</t>
+  </si>
+  <si>
+    <t>Person.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender.</t>
+  </si>
+  <si>
+    <t>The gender might not match the biological sex as determined by genetics, or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than M and F, though a clear majority of systems and contexts only support M and F.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the person, in combination with (at least) name and birth date. Gender of person drives many clinical processes.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+  </si>
+  <si>
+    <t>PID-8</t>
+  </si>
+  <si>
+    <t>Person.birthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>The date on which the person was born</t>
+  </si>
+  <si>
+    <t>The birth date for the person.</t>
+  </si>
+  <si>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown.</t>
+  </si>
+  <si>
+    <t>Age of person drives many clinical processes, and is often used in performing identification of the person. Times are not included so as to not confuse things with potential timezone issues.</t>
+  </si>
+  <si>
+    <t>./birthTime</t>
+  </si>
+  <si>
+    <t>PID-7</t>
+  </si>
+  <si>
+    <t>Person.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>One or more addresses for the person</t>
+  </si>
+  <si>
+    <t>One or more addresses for the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple addresses with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>May need to keep track of person's addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>Person.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Image of the person</t>
+  </si>
+  <si>
+    <t>An image that can be displayed as a thumbnail of the person to enhance the identification of the individual.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
+  </si>
+  <si>
+    <t>OBX-5 - needs a profile</t>
+  </si>
+  <si>
+    <t>Person.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>The organization that is the custodian of the person record</t>
+  </si>
+  <si>
+    <t>The organization that is the custodian of the person record.</t>
+  </si>
+  <si>
+    <t>Need to know who recognizes this person record, manages and updates it.</t>
+  </si>
+  <si>
+    <t>scoper</t>
+  </si>
+  <si>
+    <t>Person.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>This person's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this person's record is in active use.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a person record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Person.link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Link to a resource that concerns the same actual person</t>
+  </si>
+  <si>
+    <t>Link to a resource that concerns the same actual person.</t>
+  </si>
+  <si>
+    <t>outboundLink</t>
+  </si>
+  <si>
+    <t>Person.link.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Person.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Person.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Person.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Person.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Person.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Person.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Person.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Person.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>A human identifier for this person</t>
-  </si>
-  <si>
-    <t>Identifier for a person within a particular scope.</t>
-  </si>
-  <si>
-    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
-  </si>
-  <si>
-    <t>.plays:Role(classCode='IDENT').id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Person.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the person</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
-  </si>
-  <si>
-    <t>Person may have multiple names with different uses or applicable periods.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>Person.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the person</t>
-  </si>
-  <si>
-    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>Person.gender</t>
-  </si>
-  <si>
-    <t>male | female | other | unknown</t>
-  </si>
-  <si>
-    <t>Administrative Gender.</t>
-  </si>
-  <si>
-    <t>The gender might not match the biological sex as determined by genetics, or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than M and F, though a clear majority of systems and contexts only support M and F.</t>
-  </si>
-  <si>
-    <t>Needed for identification of the person, in combination with (at least) name and birth date. Gender of person drives many clinical processes.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
-  </si>
-  <si>
-    <t>PID-8</t>
-  </si>
-  <si>
-    <t>Person.birthDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>The date on which the person was born</t>
-  </si>
-  <si>
-    <t>The birth date for the person.</t>
-  </si>
-  <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown.</t>
-  </si>
-  <si>
-    <t>Age of person drives many clinical processes, and is often used in performing identification of the person. Times are not included so as to not confuse things with potential timezone issues.</t>
-  </si>
-  <si>
-    <t>./birthTime</t>
-  </si>
-  <si>
-    <t>PID-7</t>
-  </si>
-  <si>
-    <t>Person.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>One or more addresses for the person</t>
-  </si>
-  <si>
-    <t>One or more addresses for the person.</t>
-  </si>
-  <si>
-    <t>Person may have multiple addresses with different uses or applicable periods.</t>
-  </si>
-  <si>
-    <t>May need to keep track of person's addresses for contacting, billing or reporting requirements and also to help with identification.</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>Person.photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment
-</t>
-  </si>
-  <si>
-    <t>Image of the person</t>
-  </si>
-  <si>
-    <t>An image that can be displayed as a thumbnail of the person to enhance the identification of the individual.</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
-  </si>
-  <si>
-    <t>OBX-5 - needs a profile</t>
-  </si>
-  <si>
-    <t>Person.managingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>The organization that is the custodian of the person record</t>
-  </si>
-  <si>
-    <t>The organization that is the custodian of the person record.</t>
-  </si>
-  <si>
-    <t>Need to know who recognizes this person record, manages and updates it.</t>
-  </si>
-  <si>
-    <t>scoper</t>
-  </si>
-  <si>
-    <t>Person.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>This person's record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this person's record is in active use.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a person record as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Person.link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Link to a resource that concerns the same actual person</t>
-  </si>
-  <si>
-    <t>Link to a resource that concerns the same actual person.</t>
-  </si>
-  <si>
-    <t>outboundLink</t>
-  </si>
-  <si>
-    <t>Person.link.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1044,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1091,6 +1110,7 @@
     <col min="36" max="36" width="78.4375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1208,6 +1228,9 @@
       <c r="AL1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1215,2592 +1238,2664 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="S19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>The Person resource does justice to person registries that keep track of persons regardless of their role. The Person resource is also a primary resource to point to for people acting in a particular role such as SubjectofCare, Practitioner, and Agent. Very few attributes are specific to any role and so Person is kept lean. Most attributes are expected to be tied to the role the Person plays rather than the Person himself. Examples of that are Guardian (SubjectofCare), ContactParty (SubjectOfCare, Practitioner), and multipleBirthInd (SubjectofCare).</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Person(classCode="PSN" and determinerCode="INST" and quantity="1")</t>
@@ -690,6 +686,9 @@
   </si>
   <si>
     <t>outboundLink</t>
+  </si>
+  <si>
+    <t>Person is a Patient? link to Patient : nothing</t>
   </si>
   <si>
     <t>Person.link.id</t>
@@ -1110,7 +1109,7 @@
     <col min="36" max="36" width="78.4375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.3046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1328,24 +1327,24 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1356,28 +1355,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1427,36 +1426,36 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1467,25 +1466,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1536,19 +1535,19 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1565,7 +1564,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1576,28 +1575,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1647,19 +1646,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -1676,7 +1675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1687,7 +1686,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1699,16 +1698,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1734,43 +1733,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -1787,18 +1786,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1810,16 +1809,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1869,22 +1868,22 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -1898,11 +1897,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1921,16 +1920,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1980,7 +1979,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1995,7 +1994,7 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>73</v>
@@ -2009,11 +2008,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2032,16 +2031,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2091,7 +2090,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2103,10 +2102,10 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -2120,11 +2119,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2137,25 +2136,25 @@
         <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2204,7 +2203,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2216,10 +2215,10 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -2233,7 +2232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2256,17 +2255,17 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>73</v>
@@ -2315,7 +2314,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2327,24 +2326,24 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2352,7 +2351,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>75</v>
@@ -2364,22 +2363,22 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>73</v>
@@ -2428,7 +2427,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2440,24 +2439,24 @@
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2477,22 +2476,22 @@
         <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>73</v>
@@ -2541,7 +2540,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2553,24 +2552,24 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2578,34 +2577,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -2630,60 +2629,60 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2691,34 +2690,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2767,36 +2766,36 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2819,19 +2818,19 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -2880,7 +2879,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -2892,24 +2891,24 @@
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2932,13 +2931,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2989,28 +2988,28 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>73</v>
@@ -3018,7 +3017,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3038,20 +3037,20 @@
         <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3100,22 +3099,22 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -3129,7 +3128,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3137,32 +3136,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -3172,64 +3171,64 @@
         <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
@@ -3240,7 +3239,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3263,13 +3262,13 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3320,7 +3319,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3332,19 +3331,19 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -3360,7 +3359,7 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3435,7 +3434,7 @@
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
@@ -3462,7 +3461,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3481,16 +3480,16 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3552,7 +3551,7 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>223</v>
@@ -3586,13 +3585,13 @@
         <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>229</v>
@@ -3601,10 +3600,10 @@
         <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3665,10 +3664,10 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
@@ -3690,10 +3689,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>73</v>
@@ -3765,16 +3764,16 @@
         <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>236</v>
@@ -3802,7 +3801,7 @@
         <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>73</v>
@@ -3814,7 +3813,7 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>238</v>
@@ -3847,7 +3846,7 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>240</v>
@@ -3877,13 +3876,13 @@
         <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>242</v>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="244">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T01:19:25+00:00</t>
+    <t>2022-12-30T12:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1062,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1072,44 +1075,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="28.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="102.4921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.4140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="102.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.4140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="78.4375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="78.4375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,36 +1233,39 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>77</v>
@@ -1267,104 +1273,107 @@
       <c r="M2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1378,107 +1387,110 @@
       <c r="M3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>92</v>
@@ -1486,108 +1498,111 @@
       <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
@@ -1598,107 +1613,110 @@
       <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>104</v>
@@ -1709,31 +1727,31 @@
       <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>108</v>
@@ -1742,74 +1760,77 @@
         <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>114</v>
@@ -1820,107 +1841,110 @@
       <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>122</v>
@@ -1931,107 +1955,110 @@
       <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>130</v>
@@ -2042,220 +2069,226 @@
       <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>142</v>
@@ -2263,73 +2296,73 @@
       <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>146</v>
@@ -2340,33 +2373,36 @@
       <c r="AM11" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="AN11" t="s" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>151</v>
@@ -2381,105 +2417,108 @@
         <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>159</v>
@@ -2494,108 +2533,111 @@
         <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="AN13" t="s" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>168</v>
@@ -2607,29 +2649,29 @@
         <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>172</v>
@@ -2638,74 +2680,77 @@
         <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>178</v>
@@ -2720,105 +2765,108 @@
         <v>181</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>186</v>
@@ -2833,105 +2881,108 @@
         <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>194</v>
@@ -2939,108 +2990,111 @@
       <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>200</v>
@@ -3048,110 +3102,113 @@
       <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>206</v>
@@ -3159,110 +3216,113 @@
       <c r="L19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>208</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>214</v>
@@ -3270,108 +3330,111 @@
       <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>220</v>
@@ -3379,332 +3442,341 @@
       <c r="L21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>234</v>
@@ -3712,189 +3784,195 @@
       <c r="L24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>241</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="245">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A generic person record</t>
@@ -1265,16 +1269,16 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1339,7 +1343,7 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1348,15 +1352,15 @@
         <v>74</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1364,10 +1368,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1376,19 +1380,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1438,13 +1442,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1462,15 +1466,15 @@
         <v>74</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1481,7 +1485,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1490,16 +1494,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1550,19 +1554,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1579,10 +1583,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1593,28 +1597,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1664,19 +1668,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1693,10 +1697,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1707,7 +1711,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1719,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1754,13 +1758,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1778,19 +1782,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1807,21 +1811,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1833,16 +1837,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1892,22 +1896,22 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -1921,14 +1925,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1947,16 +1951,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2006,7 +2010,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2021,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2035,14 +2039,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2061,16 +2065,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2120,7 +2124,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2132,10 +2136,10 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2149,14 +2153,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2169,25 +2173,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2236,7 +2240,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2248,10 +2252,10 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2265,10 +2269,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2291,17 +2295,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2350,7 +2354,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2362,27 +2366,27 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2390,7 +2394,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -2402,22 +2406,22 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2466,7 +2470,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2478,27 +2482,27 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2518,22 +2522,22 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -2582,7 +2586,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2594,27 +2598,27 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2622,10 +2626,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2634,22 +2638,22 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2674,13 +2678,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2698,39 +2702,39 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2738,10 +2742,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2750,22 +2754,22 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2814,39 +2818,39 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2869,19 +2873,19 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2930,7 +2934,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2942,27 +2946,27 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2973,7 +2977,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2985,13 +2989,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3042,28 +3046,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3071,10 +3075,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3085,7 +3089,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3094,20 +3098,20 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3156,22 +3160,22 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3185,10 +3189,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3196,32 +3200,32 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3231,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>74</v>
@@ -3270,25 +3274,25 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3299,10 +3303,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3313,7 +3317,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3325,13 +3329,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3382,7 +3386,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3394,10 +3398,10 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3406,15 +3410,15 @@
         <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3425,7 +3429,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3437,13 +3441,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3494,13 +3498,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -3509,7 +3513,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3523,14 +3527,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3549,16 +3553,16 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3608,7 +3612,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3620,10 +3624,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3637,14 +3641,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3657,25 +3661,25 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3724,7 +3728,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3736,10 +3740,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3753,10 +3757,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3764,10 +3768,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3779,13 +3783,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3836,22 +3840,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3865,10 +3869,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3879,7 +3883,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3891,13 +3895,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3924,13 +3928,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -3948,22 +3952,22 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="246">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-person</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-person</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
-    <t xml:space="preserve">Mapping: FHIR HL7 vs OMRS </t>
+    <t>Mapping: FHIR HL7 vs OMRS</t>
   </si>
   <si>
     <t/>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>The Person resource does justice to person registries that keep track of persons regardless of their role. The Person resource is also a primary resource to point to for people acting in a particular role such as SubjectofCare, Practitioner, and Agent. Very few attributes are specific to any role and so Person is kept lean. Most attributes are expected to be tied to the role the Person plays rather than the Person himself. Examples of that are Guardian (SubjectofCare), ContactParty (SubjectOfCare, Practitioner), and multipleBirthInd (SubjectofCare).</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Person(classCode="PSN" and determinerCode="INST" and quantity="1")</t>
@@ -896,10 +900,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1340,10 +1344,10 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1352,15 +1356,15 @@
         <v>74</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1368,10 +1372,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1380,19 +1384,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1442,13 +1446,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1466,15 +1470,15 @@
         <v>74</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1485,7 +1489,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1494,16 +1498,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1554,19 +1558,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1583,10 +1587,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1597,28 +1601,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1668,19 +1672,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1697,10 +1701,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1711,7 +1715,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1723,16 +1727,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1758,13 +1762,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1782,19 +1786,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1811,21 +1815,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1837,16 +1841,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1896,22 +1900,22 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -1925,14 +1929,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1951,16 +1955,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2010,7 +2014,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2025,7 +2029,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2039,14 +2043,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2065,16 +2069,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2124,7 +2128,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2136,10 +2140,10 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2153,14 +2157,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2173,25 +2177,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2240,7 +2244,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2252,10 +2256,10 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2269,10 +2273,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2295,17 +2299,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2354,7 +2358,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2366,27 +2370,27 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2394,7 +2398,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -2406,22 +2410,22 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2470,7 +2474,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2482,27 +2486,27 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2522,22 +2526,22 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -2586,7 +2590,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2598,27 +2602,27 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2626,10 +2630,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2638,22 +2642,22 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2678,13 +2682,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2702,39 +2706,39 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2742,10 +2746,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2754,22 +2758,22 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2818,39 +2822,39 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2873,19 +2877,19 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2934,7 +2938,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2946,27 +2950,27 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2977,7 +2981,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2989,13 +2993,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3046,28 +3050,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3075,10 +3079,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3089,7 +3093,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3098,20 +3102,20 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3160,22 +3164,22 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3189,10 +3193,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3200,32 +3204,32 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3235,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>74</v>
@@ -3274,25 +3278,25 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3303,10 +3307,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3329,13 +3333,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3386,7 +3390,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3398,10 +3402,10 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3410,15 +3414,15 @@
         <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3429,7 +3433,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3441,13 +3445,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3498,13 +3502,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -3513,7 +3517,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3527,14 +3531,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3553,16 +3557,16 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3612,7 +3616,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3624,10 +3628,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3641,14 +3645,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3661,25 +3665,25 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3728,7 +3732,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3740,10 +3744,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3757,10 +3761,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3768,10 +3772,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3783,13 +3787,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3840,22 +3844,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3869,10 +3873,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3883,7 +3887,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -3895,13 +3899,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3928,13 +3932,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -3952,22 +3956,22 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="247">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T16:41:46+00:00</t>
+    <t>2024-12-11T17:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -225,6 +231,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FHIR HL7 vs OMRS</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
@@ -232,12 +241,6 @@
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR HL7 vs OMRS</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -263,10 +266,10 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>OMRS Person</t>
+  </si>
+  <si>
     <t>Person(classCode="PSN" and determinerCode="INST" and quantity="1")</t>
-  </si>
-  <si>
-    <t>OMRS Person</t>
   </si>
   <si>
     <t>Person.id</t>
@@ -475,6 +478,9 @@
     <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
   </si>
   <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
     <t>.plays:Role(classCode='IDENT').id</t>
   </si>
   <si>
@@ -482,9 +488,6 @@
   </si>
   <si>
     <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
   </si>
   <si>
     <t>Person.name</t>
@@ -531,13 +534,13 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>Person.personAttribute</t>
+  </si>
+  <si>
     <t>./telecom</t>
   </si>
   <si>
     <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>Person.personAttribute</t>
   </si>
   <si>
     <t>Person.gender</t>
@@ -696,10 +699,10 @@
     <t>Link to a resource that concerns the same actual person.</t>
   </si>
   <si>
+    <t>Person is a Patient? link to Patient : nothing</t>
+  </si>
+  <si>
     <t>outboundLink</t>
-  </si>
-  <si>
-    <t>Person is a Patient? link to Patient : nothing</t>
   </si>
   <si>
     <t>Person.link.id</t>
@@ -912,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1010,21 +1013,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1064,6 +1067,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1117,2870 +1128,2870 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="78.4375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="41.125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="41.125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="78.4375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-omrs-person.xlsx
+++ b/branches/main/StructureDefinition-omrs-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
